--- a/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,88</t>
+          <t>27,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,85</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>14,59</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 37,6</t>
+          <t>-17,47; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 53,54</t>
+          <t>2,51; 63,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,33; 17,09</t>
+          <t>2,18; 20,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 33,72</t>
+          <t>-3,94; 10,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 13,16</t>
+          <t>-3,5; 12,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 38,38</t>
+          <t>0,05; 40,59</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>244,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,65%</t>
+          <t>362,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>213,32%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 79,64</t>
+          <t>-87,7; 246,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 144,3</t>
+          <t>-8,09; 1945,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 31,05</t>
+          <t>-15,49; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 85,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 22,21</t>
+          <t>-39,24; 423,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 77,97</t>
+          <t>-11,87; 1139,17</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,68</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,81</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,17</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 41,85</t>
+          <t>1,07; 18,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 10,1</t>
+          <t>-8,72; 4,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 29,18</t>
+          <t>-3,09; 11,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 30,88</t>
+          <t>-5,01; 8,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 31,77</t>
+          <t>1,43; 12,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 15,46</t>
+          <t>-4,49; 4,21</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>104,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>-23,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-1,35%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 110,68</t>
+          <t>3,9; 311,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 24,16</t>
+          <t>-69,8; 83,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 87,68</t>
+          <t>-23,88; 148,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 90,31</t>
+          <t>-37,22; 105,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 76,62</t>
+          <t>10,27; 162,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 38,62</t>
+          <t>-38,02; 61,27</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,86</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,79</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-30,37</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,18</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,85</t>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 8,92</t>
+          <t>-6,24; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-50,84; -5,14</t>
+          <t>-6,96; 5,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 11,11</t>
+          <t>0,9; 14,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,45; -8,91</t>
+          <t>-3,55; 10,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 5,14</t>
+          <t>-0,19; 9,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -13,65</t>
+          <t>-3,35; 6,06</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,64%</t>
+          <t>60,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-48,79%</t>
+          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 22,24</t>
+          <t>-73,47; 232,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,89; -12,33</t>
+          <t>-81,58; 195,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 18,94</t>
+          <t>5,59; 283,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,56; -15,09</t>
+          <t>-35,55; 173,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 10,41</t>
+          <t>-2,27; 197,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; -26,55</t>
+          <t>-34,45; 119,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 25,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 14,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 15,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 56,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 31,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 19,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 31,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 7,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 9,38</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 14,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 11,01</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,65</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 8,98</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 9,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>53,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34,78%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73,82%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>28,79%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>64,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; 156,48</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-28,01; 217,11</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 160,13</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 102,22</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 131,84</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 122,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,59</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>55.39281082899959</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>80.0917507537854</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>73.88875848247454</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>47.88724431128493</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>65.90171270591183</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>74.40296543074658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; 10,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 63,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 20,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 10,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 12,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 40,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.063083271158815</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>47.94961973872975</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>30.65839663760828</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>11.11363367661554</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>38.51969296924158</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>48.8804283353632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-25,6%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>244,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>362,04%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>78,47%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>55,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>213,32%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>90.45384064742012</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>96.30531505179508</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>97.01031811968669</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>85.0412849420528</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>85.80047144002289</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>93.13003145767983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-87,7; 246,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 1945,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,49; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-39,24; 423,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 1139,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>5.335196226345442</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>7.714091413452701</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>25.3381207210764</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>16.42161544298803</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>10.20076608497952</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>11.51665435122719</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.5824316475741275</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>2.223443018477644</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.055719213329526</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.014255730251509</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>4.73337318453062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 18,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 4,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 11,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 8,48</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 12,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 4,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>22.56557619825566</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>29.27856846889051</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>25.42761816235139</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>31.73520197230338</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>104,24%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-23,24%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>38,98%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>67,76%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>60.5982585636087</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>21.97804704970055</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>47.47832691570495</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>41.6066477851035</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>53.94715792972436</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>32.09284293774887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 311,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-69,8; 83,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,88; 148,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; 105,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 162,9</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-38,02; 61,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>39.82060850335006</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.051163088419282</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>31.11383344221916</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>25.49427691357139</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>40.48101133177168</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>19.50280218993084</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,46</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>76.73950650832204</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>41.56653165205003</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>62.54934983676279</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>59.3095131139032</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>64.50004624952803</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>44.62466213722915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 6,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 5,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 14,82</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 10,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 9,71</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 6,06</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>6.263507676864616</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.271676937280181</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.032249491186122</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>3.533578271603946</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>5.00733515284879</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.978833858242994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,27%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>38,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>60,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.747874664165093</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.233409399975369</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.949617822861818</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1.573505740630524</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.834623059019735</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.532667971717019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-73,47; 232,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-81,58; 195,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 283,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-35,55; 173,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 197,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-34,45; 119,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>12.41301790717677</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.47222754346686</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>7.916396892758786</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>7.802410703418614</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>7.579694569667704</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>5.291433238963463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +924,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>22.57342663112276</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>12.21212493965394</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>45.24988355595706</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>35.65986319320074</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>37.18906376119166</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>25.30441151835856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5.412366862821172</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.047216047265281</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>29.4699155138098</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>20.42775844507429</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>24.24870214940071</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>14.57951535826954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>44.54435197694639</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>31.51066747410633</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>60.49785996259474</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>50.9230757868057</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>50.01827096236772</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>37.7493650959937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3.131015028968804</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.693865417356862</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>5.339015816364822</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>4.207493116804723</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>4.707199410212455</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.202901577191355</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.06129166582402534</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4775843068231421</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.536357247886633</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1.729238678761495</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>2.078002261775235</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.25288906081766</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 9,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 14,68</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 11,01</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,65</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 8,98</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 9,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>12.18952965502021</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>8.059490112983255</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>10.61865663824554</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>8.982133124563344</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>8.373947529844871</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>5.934698514588233</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>53,12%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>34,78%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>73,82%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>28,79%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>64,19%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>31,35%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>47.3078096567648</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>31.90856480226242</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.97405722111005</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>39.8568821733582</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>48.26649414848262</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>35.79386335800822</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-10,1; 156,48</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-28,01; 217,11</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>18,63; 160,13</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; 102,22</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>21,05; 131,84</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 122,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>33.56480011209252</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>17.42012793085475</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>39.22069884002016</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>28.9692832699339</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>39.81144561879499</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.31328622577646</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>59.22190511670485</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>54.76991952179526</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>59.43487990818368</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>51.28925633561519</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>55.47373783167774</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>49.34290154341849</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>5.360943819506204</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>3.615893961422099</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>5.303258629585541</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>4.315986183867269</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>5.337474038216778</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>3.958207857672916</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.651417468138038</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.47429853877728</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.272388802534575</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.26620726070747</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>3.597477798545652</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>2.579066079763708</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>8.813691165176515</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>7.567116965611146</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>8.539899444826068</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>6.835629148741697</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>7.304944439728507</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>6.390241969362625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
